--- a/biology/Botanique/Palicourea_longiflora/Palicourea_longiflora.xlsx
+++ b/biology/Botanique/Palicourea_longiflora/Palicourea_longiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea longiflora est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea longiflora est un arbuste ou arbre, glabrescent, atteignant jusqu'à 3(–7) m de haut. 
 On compte 2 feuilles par noeud, mesurant 6-20 × 3,5-8 cm, avec des pétioles longs de 3-11 mm.
@@ -520,10 +534,10 @@
 Les bractées florales sont longues de 0,5-2 mm.
 Les limbe du calice est long de 0,2-0,5 mm.
 La corolle est jaune à orange à la base, rose à rouge ou pourpre à l'apex, avec un tube long de 14-28 mm, et des lobes de 2-3 mm.
-Le fruit mesure 4-5 × 5-6 mm et contient 2 pyrènes[3].
+Le fruit mesure 4-5 × 5-6 mm et contient 2 pyrènes.
 En 1953, Lemée en propose la description suivante de Palicourea longiflora :
 « P. longiflora A. Rich. xanthina Dec ., Nonatelia l. Aubl. non ex Steud. in Flora XXVI, 763). Arbrisseau à rameaux cylindriques; feuilles de 0,10-0,18 sur 0,03.0,08, pétiolées ovales ou ovales-oblongues ou lancéolées longuement atténuées-acuminées, à base aiguë ou obtuse, scabres sur les 2 faces et un peu pubescentes en dessous, avec 8-12 paires de nervures saillantes en dessous, stipules à lobes très petits acuminés ; panicules courtes ou corymbes à long pédoncule pubérulent, bractées petites, bractéoles () ; fleurs à calice très court à larges segments, corolle de 14.20 mm., étamines des fleurs à court style exsertes, celui-ci de 14 mm., dans les autres de 22 mm. ; drupe à 2 noyaux côtelés. - Maroni-Charvein (R. Benoist) ; herbier Lemée : Maroni (crique Coswine), panicule rouge, fleurs d'un rose carminé. »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea longiflora est présent du Venezuela (Amazonas : Cerro Aratitiyope, Río Guainía, Río Negro, Río Orinoco, Río Ventuari) au Brésil, en passant le Guyana, le Suriname, la Guyane et l'Équateur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea longiflora est présent du Venezuela (Amazonas : Cerro Aratitiyope, Río Guainía, Río Negro, Río Orinoco, Río Ventuari) au Brésil, en passant le Guyana, le Suriname, la Guyane et l'Équateur.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea longiflora pousse dans les forêts de plaine à feuilles persistantes, forêts de pente de tepui, à 100-1 000 m d'altitude[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea longiflora pousse dans les forêts de plaine à feuilles persistantes, forêts de pente de tepui, à 100-1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -613,10 +631,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Palicourea longiflora sont cardiotoxiques pour le bétail[5] du fait de leur teneur en oxalate de calcium, en acide methyl-salicylique[6], et en acide monofluoracetique[7].
-Un champignon endophyte[8] de Palicourea longiflora présente une activité anti-microbienne[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Palicourea longiflora sont cardiotoxiques pour le bétail du fait de leur teneur en oxalate de calcium, en acide methyl-salicylique, et en acide monofluoracetique.
+Un champignon endophyte de Palicourea longiflora présente une activité anti-microbienne.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea longiflora sous le nom de Nonatelia longiflora et en a proposé le protologue suivant[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea longiflora sous le nom de Nonatelia longiflora et en a proposé le protologue suivant : 
 « 3. NONATELIA (longiflora) foliis lanceolatis, glabris ; corollis tubuloſis ; fructu rufeſcente. (Tabula 71.)
 Planta perennis, plurimos caules, nodoſos, ramoſos, tubulatos, bipedales aut tripedales è radice emittens. Folia oppoſita, lato-lanceolata, acuta, luteo-virenria, glabra, integerrima, petiolata. Stipulæ amplexicaules, quadrilobæ, adnexæ. Flores corymboſi, terminales. Calix nudus ; corolla tubuloſa, ventricoſa, purpuraſcens, Bacca globoſa, purpurea, decemſtriata, quinquelocularis.
 Florebat fructumque fercbat Auguſto.
